--- a/data/dividends_info_20260226.xlsx
+++ b/data/dividends_info_20260226.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>55</v>
+        <v>55.59999847412109</v>
       </c>
       <c r="I2" t="n">
-        <v>1.272727272727272</v>
+        <v>1.258992840307025</v>
       </c>
       <c r="J2" t="n">
         <v>354</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>84.30000305175781</v>
+        <v>82.90000152587891</v>
       </c>
       <c r="I3" t="n">
-        <v>1.233689160558475</v>
+        <v>1.254523499224959</v>
       </c>
       <c r="J3" t="n">
         <v>81</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>55</v>
+        <v>55.59999847412109</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3.956834640964937</v>
       </c>
       <c r="J4" t="n">
         <v>81</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>20.48999977111816</v>
+        <v>20.35000038146973</v>
       </c>
       <c r="I5" t="n">
-        <v>3.855539330525277</v>
+        <v>3.882063809292883</v>
       </c>
       <c r="J5" t="n">
         <v>81</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5.811999797821045</v>
+        <v>5.885000228881836</v>
       </c>
       <c r="I6" t="n">
-        <v>3.269098530788528</v>
+        <v>3.228547028214822</v>
       </c>
       <c r="J6" t="n">
         <v>81</v>
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>57.79999923706055</v>
+        <v>58.56000137329102</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42214536069118</v>
+        <v>2.390710326449095</v>
       </c>
       <c r="J7" t="n">
         <v>81</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>23.05999946594238</v>
+        <v>23.1200008392334</v>
       </c>
       <c r="I8" t="n">
-        <v>2.601908126173844</v>
+        <v>2.595155615140949</v>
       </c>
       <c r="J8" t="n">
         <v>81</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9.210000038146973</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="I9" t="n">
-        <v>5.542888142079868</v>
+        <v>5.459892825370714</v>
       </c>
       <c r="J9" t="n">
         <v>67</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.914999961853027</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="I12" t="n">
-        <v>7.230658029765396</v>
+        <v>7.194244801754432</v>
       </c>
       <c r="J12" t="n">
         <v>53</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12.86999988555908</v>
+        <v>12.92500019073486</v>
       </c>
       <c r="I13" t="n">
-        <v>4.195804233113574</v>
+        <v>4.177949648210395</v>
       </c>
       <c r="J13" t="n">
         <v>53</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>319.3999938964844</v>
+        <v>319.6000061035156</v>
       </c>
       <c r="I14" t="n">
-        <v>1.131809664708885</v>
+        <v>1.131101355119854</v>
       </c>
       <c r="J14" t="n">
         <v>53</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>25.60000038146973</v>
+        <v>26</v>
       </c>
       <c r="I15" t="n">
-        <v>5.312499920837583</v>
+        <v>5.230769230769231</v>
       </c>
       <c r="J15" t="n">
         <v>53</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>19.64999961853027</v>
+        <v>19.70000076293945</v>
       </c>
       <c r="I16" t="n">
-        <v>3.206106932469859</v>
+        <v>3.197969419296597</v>
       </c>
       <c r="J16" t="n">
         <v>53</v>
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>74.13999938964844</v>
+        <v>73.76000213623047</v>
       </c>
       <c r="I17" t="n">
-        <v>2.321014316382988</v>
+        <v>2.332971732866523</v>
       </c>
       <c r="J17" t="n">
         <v>53</v>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>28.86000061035156</v>
+        <v>28.85499954223633</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3118503052550824</v>
+        <v>0.3119043542810079</v>
       </c>
       <c r="J18" t="n">
         <v>25</v>
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>55</v>
+        <v>55.59999847412109</v>
       </c>
       <c r="I19" t="n">
-        <v>1.181818181818182</v>
+        <v>1.169064780285095</v>
       </c>
       <c r="J19" t="n">
         <v>-3</v>
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.1749999970197678</v>
+        <v>0.1800000071525574</v>
       </c>
       <c r="I21" t="n">
-        <v>34.28571486959653</v>
+        <v>33.33333200878572</v>
       </c>
       <c r="J21" t="n">
         <v>-24</v>
@@ -1557,7 +1557,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>Redelfi S.p.A.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1574,7 +1574,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1591,7 +1591,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Predict S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Predict S.p.A.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Redelfi S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1856,14 +1856,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2043,14 +2043,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2135,7 +2135,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>STMicroelectronics N.V.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>STMicroelectronics N.V.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2196,14 +2196,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2213,14 +2213,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2237,7 +2237,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2254,7 +2254,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2271,7 +2271,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2288,7 +2288,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2298,14 +2298,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2315,14 +2315,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2339,7 +2339,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2349,14 +2349,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2383,14 +2383,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2407,7 +2407,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2417,14 +2417,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2434,14 +2434,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2475,7 +2475,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2485,14 +2485,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2536,14 +2536,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2570,14 +2570,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2594,7 +2594,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2611,7 +2611,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BANCA SISTEMA S.p.A.</t>
+          <t>BEEWIZE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2628,7 +2628,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BEEWIZE</t>
+          <t>BANCA SISTEMA S.p.A.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2645,7 +2645,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VALSOIA S.p.A.</t>
+          <t>CALTAGIRONE EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2662,7 +2662,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2679,7 +2679,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2689,14 +2689,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2713,7 +2713,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>VALSOIA S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2723,14 +2723,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2747,7 +2747,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2781,7 +2781,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2798,7 +2798,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2832,7 +2832,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2849,7 +2849,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2995,14 +2995,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3012,14 +3012,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3029,14 +3029,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3053,7 +3053,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3063,14 +3063,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3080,14 +3080,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3104,7 +3104,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3121,7 +3121,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3138,7 +3138,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3165,14 +3165,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3206,7 +3206,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3223,7 +3223,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3233,14 +3233,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3250,14 +3250,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3267,14 +3267,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3284,14 +3284,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3308,7 +3308,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3318,14 +3318,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3335,14 +3335,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3352,14 +3352,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3369,14 +3369,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3386,14 +3386,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3410,7 +3410,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3427,7 +3427,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3461,7 +3461,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3478,7 +3478,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3495,7 +3495,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3505,14 +3505,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3529,7 +3529,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3546,7 +3546,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3556,14 +3556,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3573,14 +3573,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3590,14 +3590,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3641,14 +3641,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3665,7 +3665,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3682,7 +3682,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3692,14 +3692,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3733,7 +3733,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3750,7 +3750,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3760,14 +3760,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3801,7 +3801,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3818,7 +3818,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3835,7 +3835,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3845,14 +3845,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3862,14 +3862,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3879,14 +3879,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3903,7 +3903,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3937,7 +3937,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3954,7 +3954,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3964,14 +3964,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4005,7 +4005,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4015,14 +4015,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4039,7 +4039,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4056,7 +4056,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Monnalisa S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4066,14 +4066,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>Monnalisa S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4090,7 +4090,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4107,7 +4107,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4124,7 +4124,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4134,14 +4134,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4151,14 +4151,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4168,14 +4168,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4192,7 +4192,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4236,14 +4236,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4260,7 +4260,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4277,7 +4277,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4287,14 +4287,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4311,7 +4311,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4328,7 +4328,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4338,14 +4338,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4355,14 +4355,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4372,14 +4372,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4389,14 +4389,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4430,7 +4430,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4447,7 +4447,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4457,14 +4457,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4481,7 +4481,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4498,7 +4498,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4515,7 +4515,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4532,7 +4532,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4566,7 +4566,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4583,7 +4583,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4593,14 +4593,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4617,7 +4617,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4627,14 +4627,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>AEDES S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4651,7 +4651,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4661,14 +4661,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>TECHNOGYM S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4678,14 +4678,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>RECORDATI S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4702,7 +4702,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FRENDY ENERGY S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4712,14 +4712,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4729,14 +4729,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Ecomembrane S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4753,7 +4753,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4763,14 +4763,14 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4787,7 +4787,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4797,14 +4797,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4814,14 +4814,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>FRENDY ENERGY S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4848,14 +4848,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>FNM S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4872,7 +4872,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4882,14 +4882,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>Ecomembrane S.p.A.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4899,14 +4899,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4940,7 +4940,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>Telesia S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4950,14 +4950,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>gAIn360 S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4967,14 +4967,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>gAIn360 S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5025,7 +5025,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>DiaSorin S.p.A</t>
+          <t>Gambero Rosso S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5042,7 +5042,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Gambero Rosso S.p.A.</t>
+          <t>DiaSorin S.p.A</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5059,7 +5059,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Telesia S.p.A.</t>
+          <t>INTERPUMP GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5076,7 +5076,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>POWERSOFT S.p.A.</t>
+          <t>OMER S.p.A.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5093,7 +5093,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Nusco S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5103,14 +5103,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>IREN S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5127,7 +5127,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>IMMSI S.p.A.</t>
+          <t>Altea Green Power S.p.A.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5137,14 +5137,14 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>HELYX INDUSTRIES S.p.A.</t>
+          <t>Nusco S.p.A.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5161,7 +5161,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Friends S.p.A.</t>
+          <t>F.I.L.A. S.p.A.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5178,7 +5178,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>FOPE S.p.A.</t>
+          <t>IMMSI S.p.A.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5195,7 +5195,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>F.I.L.A. S.p.A.</t>
+          <t>HELYX INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5212,7 +5212,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>OMER S.p.A.</t>
+          <t>FOPE S.p.A.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5229,7 +5229,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Antares Vision S.p.A.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5239,14 +5239,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Predict S.p.A.</t>
+          <t>Friends S.p.A.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5263,7 +5263,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>EuroGroup Laminations S.p.A.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Antares Vision S.p.A.</t>
+          <t>IREN S.p.A.</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5297,7 +5297,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Banca Profilo S.p.A.</t>
+          <t>ZEST S.p.A.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5314,7 +5314,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>CLASS EDITORI S.p.A.</t>
+          <t>POWERSOFT S.p.A.</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5331,7 +5331,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ENAV S.p.A.</t>
+          <t>CLASS EDITORI S.p.A.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5348,7 +5348,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>EXPERT.AI S.p.A.</t>
+          <t>SECO S.p.A.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5365,7 +5365,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>EuroGroup Laminations S.p.A.</t>
+          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5382,7 +5382,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Ubaldi Costruzioni S.p.A.</t>
+          <t>RAI WAY S.p.A.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5399,7 +5399,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ZEST S.p.A.</t>
+          <t>Predict S.p.A.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5416,7 +5416,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Altea Green Power S.p.A.</t>
+          <t>EXPERT.AI S.p.A.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5433,7 +5433,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SECO S.p.A.</t>
+          <t>ENAV S.p.A.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5450,7 +5450,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Radici Pietro Industries &amp; Brands S.p.A.</t>
+          <t>Ubaldi Costruzioni S.p.A.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5467,7 +5467,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>RAI WAY S.p.A.</t>
+          <t>Banca Profilo S.p.A.</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5484,7 +5484,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Softlab S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5494,14 +5494,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>Franchi Umberto Marmi S.p.A.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5511,14 +5511,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SIAV S.p.A.</t>
+          <t>Growens S.p.A.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5535,7 +5535,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>DOTSTAY S.p.A.</t>
+          <t>Matica Fintec S.p.A.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5552,7 +5552,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Franchi Umberto Marmi S.p.A.</t>
+          <t>SIAV S.p.A.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5569,7 +5569,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RCS MediaGroup S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5579,14 +5579,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Porto Aviation Group S.p.A.</t>
+          <t>Softlab S.p.A.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5603,7 +5603,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Matica Fintec S.p.A.</t>
+          <t>Allcore S.p.A.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5620,7 +5620,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Growens S.p.A.</t>
+          <t>Egomnia S.p.A.</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5637,7 +5637,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Porto Aviation Group S.p.A.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5647,14 +5647,14 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Egomnia S.p.A.</t>
+          <t>RCS MediaGroup S.p.A.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5671,7 +5671,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Cloudia Research S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5681,14 +5681,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>CAIRO COMMUNICATION S.p.A.</t>
+          <t>SABAF S.p.A.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5705,7 +5705,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>Cloudia Research S.p.A.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5715,14 +5715,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Braga Moro Sistemi di Energia S.p.A.</t>
+          <t>CAIRO COMMUNICATION S.p.A.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5739,7 +5739,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Allcore S.p.A.</t>
+          <t>Braga Moro Sistemi di Energia S.p.A.</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5756,7 +5756,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SABAF S.p.A.</t>
+          <t>DOTSTAY S.p.A.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -5773,7 +5773,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ATON Green Storage S.p.A.</t>
+          <t>PININFARINA S.p.A.</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5790,7 +5790,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
+          <t>Longino &amp; Cardenal S.p.A.</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5807,7 +5807,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BolognaFiere S.p.A.</t>
+          <t>HERA S.p.A.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -5824,7 +5824,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CREACTIVES GROUP S.p.A.</t>
+          <t>ELICA S.p.A.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -5834,14 +5834,14 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Confinvest F.L. S.p.A.</t>
+          <t>The Italian Sea Group S.p.A.</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5851,14 +5851,14 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>DANIELI &amp; C. S.p.A.</t>
+          <t>FINCANTIERI S.p.A.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5868,14 +5868,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ELICA S.p.A.</t>
+          <t>ESI S.p.A.</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5892,7 +5892,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>ELSA Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -5909,7 +5909,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Somec S.p.A.</t>
+          <t>DANIELI &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -5919,14 +5919,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>G.M. Leather S.p.A.</t>
+          <t>The Italian Sea Group S.p.A.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5943,7 +5943,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>PININFARINA S.p.A.</t>
+          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5960,7 +5960,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>The Italian Sea Group S.p.A.</t>
+          <t>eVISO S.p.A.</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -5970,14 +5970,14 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>The Italian Sea Group S.p.A.</t>
+          <t>rino petino S.p.A.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -5994,7 +5994,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>PLC S.p.A.</t>
+          <t>G.M. Leather S.p.A.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6011,7 +6011,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Xenia Hotellerie Solution S.p.A. Società Benefit</t>
+          <t>Confinvest F.L. S.p.A.</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6028,7 +6028,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>eVISO S.p.A.</t>
+          <t>Somec S.p.A.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6038,14 +6038,14 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Longino &amp; Cardenal S.p.A.</t>
+          <t>BolognaFiere S.p.A.</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6062,7 +6062,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>rino petino S.p.A.</t>
+          <t>BRIOSCHI SVILUPPO IMMOBILIARE S.p.A</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6079,7 +6079,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>HERA S.p.A.</t>
+          <t>CREACTIVES GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6089,14 +6089,14 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>FINCANTIERI S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6113,7 +6113,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ELSA Solutions S.p.A.</t>
+          <t>PLC S.p.A.</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6130,7 +6130,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ESI S.p.A.</t>
+          <t>ATON Green Storage S.p.A.</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6147,7 +6147,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
+          <t>RES S.p.A.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6157,14 +6157,14 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Rocket Sharing Company S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6174,14 +6174,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Edil San Felice S.p.A. Società Benefit</t>
+          <t>Next Geosolutions Europe S.p.A.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6198,7 +6198,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Racing Force S.p.A.</t>
+          <t>Maps S.p.A.</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6208,14 +6208,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>RES S.p.A.</t>
+          <t>Lindbergh S.p.A.</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6232,7 +6232,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Pirelli &amp; C. S.p.A.</t>
+          <t>KME Group S.p.A.</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6249,7 +6249,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ENA S.p.A.</t>
+          <t>Intred S.p.A.</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6266,7 +6266,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Finanza.tech S.p.A. Società Benefit</t>
+          <t>Grifal S.p.A.</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6283,7 +6283,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Industrie Chimiche Forestali S.p.A.</t>
+          <t>Giglio.com S.p.A.</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6300,7 +6300,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Giglio.com S.p.A.</t>
+          <t>GVS S.p.A.</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6317,7 +6317,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ISCC FINTECH S.p.A.</t>
+          <t>Finanza.tech S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6334,7 +6334,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Cogefeed S.p.A.</t>
+          <t>Edil San Felice S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6351,7 +6351,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>Alfonsino S.p.A.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6361,14 +6361,14 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Alfonsino S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6378,14 +6378,14 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Grifal S.p.A.</t>
+          <t>Cogefeed S.p.A.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6402,7 +6402,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>Directa SIM S.P.A.</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6412,14 +6412,14 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Directa SIM S.P.A.</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6436,7 +6436,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>GVS S.p.A.</t>
+          <t>TREVI - Finanziaria Industriale S.p.A.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6453,7 +6453,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Next Geosolutions Europe S.p.A.</t>
+          <t>TERNA S.p.A.</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6463,14 +6463,14 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SOL S.p.A.</t>
+          <t>TERNA S.p.A.</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6487,7 +6487,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Lindbergh S.p.A.</t>
+          <t>SOL S.p.A.</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6504,7 +6504,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Maps S.p.A.</t>
+          <t>Edil San Felice S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6514,14 +6514,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Unipol S.p.A.</t>
+          <t>ENA S.p.A.</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6538,7 +6538,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>TREVI - Finanziaria Industriale S.p.A.</t>
+          <t>Racing Force S.p.A.</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -6548,14 +6548,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Directa SIM S.P.A.</t>
+          <t>Rocket Sharing Company S.p.A.</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6572,7 +6572,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>TERNA S.p.A.</t>
+          <t>Pirelli &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -6589,7 +6589,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>TERNA S.p.A.</t>
+          <t>ISCC FINTECH S.p.A.</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -6599,14 +6599,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>KME Group S.p.A.</t>
+          <t>Industrie Chimiche Forestali S.p.A.</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -6623,7 +6623,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Intred S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -6633,14 +6633,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Directa SIM S.P.A.</t>
+          <t>Unipol S.p.A.</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -6650,14 +6650,14 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Praexidia Industrie Strategiche S.p.A.</t>
+          <t>Arterra Bioscience S.p.A.</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -6674,7 +6674,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>TradeLab S.p.A.</t>
+          <t>Smart Capital S.p.A.</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -6691,7 +6691,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Telmes S.p.A.</t>
+          <t>SOSTRAVEL.COM S.p.A.</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Smart Capital S.p.A.</t>
+          <t>SOGES GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6725,7 +6725,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Saccheria F.lli Franceschetti S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -6742,7 +6742,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SOSTRAVEL.COM S.p.A.</t>
+          <t>Copernico SIM S.p.A.</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6759,7 +6759,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SOGES GROUP S.p.A.</t>
+          <t>DEODATO.GALLERY S.p.A.</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -6776,7 +6776,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>UCapital24 S.p.A.</t>
+          <t>Magis S.p.A.</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -6793,7 +6793,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ELES S.p.A.</t>
+          <t>OSAI Automation System S.p.A.</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -6803,14 +6803,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Energy S.p.A.</t>
+          <t>PHILOGEN S.p.A.</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -6827,7 +6827,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Iniziative Bresciane - INBRE - S.p.A.</t>
+          <t>PREMIA FINANCE S.P.A</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -6844,7 +6844,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>International Care Company S.p.A.</t>
+          <t>Praexidia Industrie Strategiche S.p.A.</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -6861,7 +6861,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Italian Wine Brands S.p.A.</t>
+          <t>Riba Mundo Tecnologia S.A.</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -6878,7 +6878,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Lemon Sistemi S.p.A.</t>
+          <t>SG COMPANY SOCIETÀ BENEFIT S.p.A.</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -6895,7 +6895,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>MARZOCCHI POMPE S.p.A.</t>
+          <t>SIAV S.p.A.</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -6905,14 +6905,14 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ESAUTOMOTION S.p.A.</t>
+          <t>Metriks AI S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -6929,7 +6929,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>VINEXT S.p.A.</t>
+          <t>Telmes S.p.A.</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -6946,7 +6946,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Vimi Fasteners S.p.A.</t>
+          <t>MARZOCCHI POMPE S.p.A.</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -6963,7 +6963,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>YOLO GROUP S.p.A.</t>
+          <t>UCapital24 S.p.A.</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -6980,7 +6980,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>PREMIA FINANCE S.P.A</t>
+          <t>Bellini Nautica S.p.A.</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -6997,7 +6997,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>PHILOGEN S.p.A.</t>
+          <t>Yakkyo S.p.A.</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7014,7 +7014,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>OSAI Automation System S.p.A.</t>
+          <t>SBE-Varvit S.p.A.</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7024,14 +7024,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Annual General Meeting</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Metriks AI S.p.A. Società Benefit</t>
+          <t>YOLO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7048,7 +7048,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Magis S.p.A.</t>
+          <t>Vimi Fasteners S.p.A.</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7065,7 +7065,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SBE-Varvit S.p.A.</t>
+          <t>VINEXT S.p.A.</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7082,7 +7082,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Arterra Bioscience S.p.A.</t>
+          <t>DESTINATION ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7099,7 +7099,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Bellini Nautica S.p.A.</t>
+          <t>EDILIZIACROBATICA S.p.A.</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7116,7 +7116,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>ELES S.p.A.</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7133,7 +7133,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Copernico SIM S.p.A.</t>
+          <t>ESAUTOMOTION S.p.A.</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7150,7 +7150,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>DEODATO.GALLERY S.p.A.</t>
+          <t>Energy S.p.A.</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7167,7 +7167,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SG COMPANY SOCIETÀ BENEFIT S.p.A.</t>
+          <t>Iniziative Bresciane - INBRE - S.p.A.</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7184,7 +7184,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Yakkyo S.p.A.</t>
+          <t>International Care Company S.p.A.</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7201,7 +7201,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>DESTINATION ITALIA S.p.A.</t>
+          <t>Italian Wine Brands S.p.A.</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7218,7 +7218,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SIAV S.p.A.</t>
+          <t>Lemon Sistemi S.p.A.</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7228,14 +7228,14 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Riba Mundo Tecnologia S.A.</t>
+          <t>TradeLab S.p.A.</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7252,7 +7252,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>EDILIZIACROBATICA S.p.A.</t>
+          <t>Saccheria F.lli Franceschetti S.p.A.</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7295,66 +7295,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Monnalisa S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>STMicroelectronics N.V.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-04</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>